--- a/Config/Datas/CardEventDatas/CardEventData.xlsx
+++ b/Config/Datas/CardEventDatas/CardEventData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\2025Taptap\Config\Datas\CardEventDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBB38A3-07FF-4D51-A526-9FA24DC41AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E44204F-EBF9-45C6-B7AB-C205E791C106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>actions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -68,6 +64,38 @@
   </si>
   <si>
     <t>$value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*actions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pack_basic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础卡包双击打开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CA_销毁自身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CA_生成卡牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood,fruit,stone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -127,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -143,6 +171,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -424,81 +455,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="24.625" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="24.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>8</v>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
